--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560330/JX560330_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560330/JX560330_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89313886424</v>
+        <v>45441.83340427227</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1473a&gt;g']</t>
+          <t>['1230_1335del', '1379_1432insgcgtagttaccatgacgtctgacctccaggtagcgcgcttagccaagtaccga', '1243_1336del', '1468_1535del', '1336_1416del']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89313889317</v>
+        <v>45441.83340430121</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['191_191del']</t>
+          <t>['233_345instgttgactgcggtaattgcgattgtactccgctaatgcatccatggtctatatcgctcggagaaattaatgcgcgagtgccccctgtccagaatttgcaacagcgagcctat', '240_284insgagagaacggtattaagtaagaatggtaggcggcccactccgcg', '225_366del', '169_242inscagttacgatgtgcatcatgttattttttagggagatcatgatttagatgaattagtttgatcattccagacc', '199_238insatgaaggcgtcatagaatgaaaaacccccaatgcgagta']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.8931389221</v>
+        <v>45441.83340433013</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['5197g&gt;c']</t>
+          <t>['5268_5297del', '5228_5293insaagggcactcctacgcttccgtatggctcgacactggaggtcccatcgtcacaatggggcattta', '5227_5317instcgtaaaccacctccttgtctgcaacatacaaaaaaatgcgtggtctagcaattcgggtactccgactacttgacctacgtgtatccaat', '5178_5229del', '5245_5295del']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89313895104</v>
+        <v>45441.83340435907</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1474_1478insaaat']</t>
+          <t>['1239_1297del', '1452_1527del', '1238_1360del', '1382_1448insttactcaagattgtggattcgaaccctggcacaggtgcatctagattatctattatgaaagacacc', '1363_1390del']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['243t&gt;a']</t>
+          <t>['205_336del', '238_387del', '152_232instcggtatcggctcgggaggtctagagagggcggttgctcttaccggcacggctaagcaccatgcagcgggtctacatgac', '221_234del', '180_244insaagaaacgggctggtccgggagcggttagattctctctttgagcattaatgccatgcacgtgct']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89313897998</v>
+        <v>45441.83340438803</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1396_1398insta']</t>
+          <t>['1382_1490del', '1471_1579del', '1435_1459del', '1420_1482insttggcctgagccgtactggaatcccgacattccttacggcgcattatagcccgacagcgttt', '1303_1446del']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['5235a&gt;g']</t>
+          <t>['5275_5358insgctagccagacttctaagtgctgtcgattgttccattccactgaggtagtagacagtctgaacacaatttgaccgacgtggag', '5259_5281del', '5221_5242del', '5236_5258del', '5186_5307del']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89313900892</v>
+        <v>45441.83340441693</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['254_256insga']</t>
+          <t>['248_337insaaacgggtaccggttcctaaccgaggggctacccctctgcttcccaggagggtgtagataaatttgcatgtgacaaagtgggactccca', '218_323del', '201_233del', '165_270del', '232_379del']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['5266_5268del']</t>
+          <t>['5195_5301instactaatacagataaccatttctgtccagtttgttcccgatctcggtctatccgtaaaggtttaacatcgcaagtgttactgctaacggcgcaataacatccccat', '5250_5356del', '5223_5236del', '5237_5302del', '5181_5309insctcggtcaaccgtcagggtactcccggagggccaatggcctcaagtcctctcctactgatggagtcactatcaagagtgctctcaagaaaagtctcatgtctataattaaacagtatggctagctacc']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89313903785</v>
+        <v>45441.83340444008</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1411_1416insccttc']</t>
+          <t>['1341_1417instataatctctagagaaaaattcggtcaggttcactttcgaggaggaggttgtgggcatcctactgtgagtctcatg', '1472_1503del', '1442_1507del', '1333_1359del', '1468_1530inscaccaatgtaaacccgatacccgcggttggggcagttatagcatgcttctatactaaaagcg']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['189_194insgtgtg']</t>
+          <t>['186_280del', '174_264del', '239_349insccatagcagctattacgtacgaattcgcccaggcacatagtctcgttatatccgggtatgttgaagaatgcccccgggcgtcgcaataattttcactgcgtgtggctact', '197_339insttggtctgtccagtaccgattcctgcgcgataccgggcgtggaattagtctctaatcggtggtcactaacctatgtatccacgcaagcgttattcatttgcattcgataagcaaactacgtggagagctggggagatttagg', '203_243insctaatttgctctaacgtgtaaggaattaagcaggtacccg']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['5201a&gt;t']</t>
+          <t>['5251_5332del', '5275_5380del', '5185_5241del', '5266_5331insctgacggtataacgcgcactaaccgctagaggcagtttttaactttccttaatgcctaactaatc', '5179_5204del']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89313906679</v>
+        <v>45441.83340446901</v>
       </c>
     </row>
   </sheetData>
